--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H2">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I2">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J2">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N2">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P2">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q2">
-        <v>259.6790409880053</v>
+        <v>9.213492761216001</v>
       </c>
       <c r="R2">
-        <v>2337.111368892048</v>
+        <v>82.921434850944</v>
       </c>
       <c r="S2">
-        <v>0.2632259495476921</v>
+        <v>0.01818554345883485</v>
       </c>
       <c r="T2">
-        <v>0.2632259495476921</v>
+        <v>0.01818554345883485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H3">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I3">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J3">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P3">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q3">
-        <v>255.9440972731254</v>
+        <v>225.753178604224</v>
       </c>
       <c r="R3">
-        <v>2303.496875458128</v>
+        <v>2031.778607438016</v>
       </c>
       <c r="S3">
-        <v>0.2594399909192409</v>
+        <v>0.4455904342551828</v>
       </c>
       <c r="T3">
-        <v>0.2594399909192409</v>
+        <v>0.4455904342551828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.995988</v>
+        <v>31.749936</v>
       </c>
       <c r="H4">
-        <v>107.987964</v>
+        <v>95.249808</v>
       </c>
       <c r="I4">
-        <v>0.5613901502831141</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="J4">
-        <v>0.561390150283114</v>
+        <v>0.5302851438878331</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P4">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q4">
-        <v>38.20241007911066</v>
+        <v>33.69609066036801</v>
       </c>
       <c r="R4">
-        <v>343.821690711996</v>
+        <v>303.264815943312</v>
       </c>
       <c r="S4">
-        <v>0.03872420981618117</v>
+        <v>0.06650916617381553</v>
       </c>
       <c r="T4">
-        <v>0.03872420981618116</v>
+        <v>0.06650916617381551</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>61.999422</v>
       </c>
       <c r="I5">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J5">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N5">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P5">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q5">
-        <v>149.0902305257893</v>
+        <v>5.997190312410666</v>
       </c>
       <c r="R5">
-        <v>1341.812074732104</v>
+        <v>53.97471281169599</v>
       </c>
       <c r="S5">
-        <v>0.151126626735532</v>
+        <v>0.01183722263464973</v>
       </c>
       <c r="T5">
-        <v>0.151126626735532</v>
+        <v>0.01183722263464973</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>61.999422</v>
       </c>
       <c r="I6">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J6">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P6">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q6">
         <v>146.9458771835493</v>
@@ -818,10 +818,10 @@
         <v>1322.512894651944</v>
       </c>
       <c r="S6">
-        <v>0.1489529840629108</v>
+        <v>0.2900409980096793</v>
       </c>
       <c r="T6">
-        <v>0.1489529840629108</v>
+        <v>0.2900409980096793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>61.999422</v>
       </c>
       <c r="I7">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="J7">
-        <v>0.3223124461726698</v>
+        <v>0.3451699599880819</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P7">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q7">
-        <v>21.93325307912866</v>
+        <v>21.93325307912867</v>
       </c>
       <c r="R7">
         <v>197.399277712158</v>
       </c>
       <c r="S7">
-        <v>0.02223283537422706</v>
+        <v>0.04329173934375294</v>
       </c>
       <c r="T7">
-        <v>0.02223283537422706</v>
+        <v>0.04329173934375292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>22.370752</v>
       </c>
       <c r="I8">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J8">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.214110666666667</v>
+        <v>0.2901893333333334</v>
       </c>
       <c r="N8">
-        <v>21.642332</v>
+        <v>0.870568</v>
       </c>
       <c r="O8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="P8">
-        <v>0.4688823795981188</v>
+        <v>0.03429389578125064</v>
       </c>
       <c r="Q8">
-        <v>53.79502687485155</v>
+        <v>2.163917869681778</v>
       </c>
       <c r="R8">
-        <v>484.155241873664</v>
+        <v>19.475260827136</v>
       </c>
       <c r="S8">
-        <v>0.05452980331489471</v>
+        <v>0.004271129687766054</v>
       </c>
       <c r="T8">
-        <v>0.05452980331489471</v>
+        <v>0.004271129687766054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>22.370752</v>
       </c>
       <c r="I9">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J9">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="P9">
-        <v>0.4621384803214003</v>
+        <v>0.8402845891331153</v>
       </c>
       <c r="Q9">
         <v>53.02129713234488</v>
@@ -1004,10 +1004,10 @@
         <v>477.191674191104</v>
       </c>
       <c r="S9">
-        <v>0.05374550533924863</v>
+        <v>0.1046531568682532</v>
       </c>
       <c r="T9">
-        <v>0.05374550533924863</v>
+        <v>0.1046531568682532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>22.370752</v>
       </c>
       <c r="I10">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="J10">
-        <v>0.116297403544216</v>
+        <v>0.1245448961240849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="P10">
-        <v>0.06897914008048092</v>
+        <v>0.1254215150856341</v>
       </c>
       <c r="Q10">
-        <v>7.913999023836443</v>
+        <v>7.913999023836444</v>
       </c>
       <c r="R10">
-        <v>71.22599121452799</v>
+        <v>71.22599121452801</v>
       </c>
       <c r="S10">
-        <v>0.008022094890072697</v>
+        <v>0.01562060956806565</v>
       </c>
       <c r="T10">
-        <v>0.008022094890072697</v>
+        <v>0.01562060956806564</v>
       </c>
     </row>
   </sheetData>
